--- a/medicine/Psychotrope/Rothmans/Rothmans.xlsx
+++ b/medicine/Psychotrope/Rothmans/Rothmans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Rothmans est une marque de cigarettes anglaise créée en 1890 et appartenant au groupe British American Tobacco depuis 1999[3].
+Rothmans est une marque de cigarettes anglaise créée en 1890 et appartenant au groupe British American Tobacco depuis 1999.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Cigarettes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Avant que ces appellations soient interdites, il existait deux types de cigarettes différentes :
 les paquets rouges anciennement appelés légère contenant 8,0 mg de goudrons 0,60 de nicotine 9 mg de monoxyde de carbone
@@ -544,7 +558,9 @@
           <t>Commandite</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rothmans a aussi été le commanditaire de l'écurie Williams de Formule 1 de 1994 à 1997 lors de la motorisation de l'équipe par Renault, les couleurs des trois entités correspondant les unes aux autres. L'écurie Rothmans Williams Renault fut championne du monde des constructeurs en 1994, 1996 et 1997, Damon Hill remportant le titre de pilotes en 1996, et Jacques Villeneuve l'année suivante.
 En endurance, elle a longtemps commandité l'écurie Porsche durant les années 1980, qui a remporté les 24 heures du Mans 1982, 1983, 1986 et 1987. La marque a aussi commandité Porsche dans les années 1980 lors du Paris-Dakar.
